--- a/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-45,48%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>-45,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-24,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44,37%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 3,46</t>
+          <t>-4,1; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,04</t>
+          <t>-9,88; 0,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,99</t>
+          <t>-5,91; 2,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,55; 76,91</t>
+          <t>-2,68; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 7,87</t>
+          <t>-43,55; 160,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,13; 27,51</t>
+          <t>-76,33; 20,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-76,58; 119,49</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-57,16; 436,16</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,92%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-23,48%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,65</t>
+          <t>-6,85; 6,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,65</t>
+          <t>-5,57; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,51</t>
+          <t>-8,3; 3,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 103,79</t>
+          <t>-3,84; 7,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,2; 87,87</t>
+          <t>-59,35; 136,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 98,25</t>
+          <t>-81,06; 249,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-72,87; 86,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-60,93; 324,38</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-14,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-77,01%</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,61%</t>
+          <t>-65,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-69,32%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-52,24%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>200,05%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 1,29</t>
+          <t>-21,16; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 8,63</t>
+          <t>-55,31; 10,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 7,85</t>
+          <t>-31,38; 7,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-4,06; 22,05</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 209,99</t>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,45%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-47,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,5%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,47</t>
+          <t>-4,2; 3,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,46</t>
+          <t>-11,02; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,89</t>
+          <t>-6,07; 1,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 60,61</t>
+          <t>-1,29; 5,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,75; 13,53</t>
+          <t>-41,29; 71,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 21,26</t>
+          <t>-78,22; 0,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-63,89; 27,73</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 211,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-45,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>44,37%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.136554058232516</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.166218039404302</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4766389805347986</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.226967646309733</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3092311557325105</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4304214190264077</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1059337607947669</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6186020383948279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 6,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 0,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,91; 2,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 6,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; 160,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-76,33; 20,03</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-76,58; 119,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-57,16; 436,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.087723797116635</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.945922932109159</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.04155705660124</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.098296483255868</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3539953210451444</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.751265554259221</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7242166514973054</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.490304465745762</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.759257895568878</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.480980470249077</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.751939477179902</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.112125629582614</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.196787683896246</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2692741820913638</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.565945365523572</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.263057725979722</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-23,48%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 6,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 2,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; 3,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 7,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-59,35; 136,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-81,06; 249,27</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-72,87; 86,86</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-60,93; 324,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1896775442017037</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.8626071621309948</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.518676711298761</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.6146453497638</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.02132846061969542</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2093335046183457</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2089927175983758</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.344579452045301</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-14,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-65,66%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-69,32%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-52,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>200,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.638791165976813</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.262754080416665</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.810817900501537</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.557046643591427</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6093080466966867</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8051703214464236</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7184566763681374</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5996789650712702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; 3,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-55,31; 10,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-31,38; 7,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 22,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.247738932545208</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.988849688067423</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.894016861381429</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.930112268560594</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.433553421940435</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.629630786916209</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9763037152622016</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.343809097721698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-47,2%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-29,5%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50,31%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.506332547802959</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.952789663614354</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.420503417994081</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.046036303648748</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6774762389449412</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5593868488044241</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5888196427763392</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.265684973640513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 3,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; -0,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 1,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 5,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 71,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-78,22; 0,27</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-63,89; 27,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,81; 211,41</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.22349510718653</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-48.22458396710712</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-31.46332995325231</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.537086449689617</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.318079266755977</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.35050904064382</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.362649845575698</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>24.79000412116172</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.523983249694332</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.294726403731906</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.67317230151395</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.390124320406561</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06794954272287533</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4046996661333849</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2568067028803762</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6077240937274427</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.861665061986592</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.368421634998205</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.521039424580713</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.137840286934149</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3832746587756198</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7469612442884159</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6078467312304312</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.275800283784728</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.032223931844403</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4220001238182157</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.478349590433746</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.302409747212319</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9003801508808829</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1372529895076143</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3601476080557265</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.352179839164388</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
